--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rc\Timetablo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2809A096-3F3F-4DA3-9F61-BBD2468CFE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE5AC78-D796-451D-A885-CF63DC30D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="285">
   <si>
     <t>6_IT_K, 6_IT_L,6_ICT_M</t>
   </si>
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D212" sqref="D211:D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5885,9 +5885,7 @@
       <c r="C211" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2" t="s">
@@ -5904,9 +5902,7 @@
       <c r="C212" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
